--- a/DbLayouts/XX-系統/TxTranCode.xlsx
+++ b/DbLayouts/XX-系統/TxTranCode.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\SKL\DB\GenTables\XX-系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC709397-9EE2-4630-98DC-3F93B05AB301}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="76">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -283,22 +282,34 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>0.不控管 1.控管</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustRmkFg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>結清戶個資控管記號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>顯示顧客控管警訊記號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.不顯示 1.顯示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>CustDataCtrlFg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>結清戶個資控管記號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.不控管 1.控管</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -577,8 +588,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00739C75-6C63-4118-B4A6-CEBC1567DD6C}"/>
-    <cellStyle name="一般 2 2" xfId="2" xr:uid="{BDE68CEA-69F9-442A-BA3A-3E71E22E85EF}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -669,23 +680,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -721,23 +715,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -913,11 +890,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1080,7 +1057,7 @@
     </row>
     <row r="11" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
-        <f t="shared" ref="A11:A24" si="0">A10+1</f>
+        <f t="shared" ref="A11:A25" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -1276,10 +1253,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>15</v>
@@ -1289,7 +1266,7 @@
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1297,18 +1274,22 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="27"/>
+      <c r="B21" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="F21" s="22"/>
-      <c r="G21" s="23"/>
+      <c r="G21" s="23" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
@@ -1316,17 +1297,17 @@
         <v>14</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="27">
-        <v>6</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E22" s="27"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
     </row>
     <row r="23" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
@@ -1334,17 +1315,17 @@
         <v>15</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
+        <v>36</v>
+      </c>
+      <c r="E23" s="27">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
@@ -1352,19 +1333,37 @@
         <v>16</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="27">
-        <v>6</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E24" s="27"/>
       <c r="F24" s="22"/>
       <c r="G24" s="23"/>
+    </row>
+    <row r="25" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="27">
+        <v>6</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1383,7 +1382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
